--- a/Excel/uploads/sample.xlsx
+++ b/Excel/uploads/sample.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Sahan</t>
   </si>
@@ -83,22 +83,25 @@
     <t>991212345V</t>
   </si>
   <si>
-    <t>Ashan</t>
-  </si>
-  <si>
     <t>Malabe</t>
   </si>
   <si>
-    <t>895567452V</t>
-  </si>
-  <si>
-    <t>Ashan@gmail.com</t>
-  </si>
-  <si>
     <t>qwet</t>
   </si>
   <si>
     <t>Asho</t>
+  </si>
+  <si>
+    <t>Ashan01</t>
+  </si>
+  <si>
+    <t>8955237452V</t>
+  </si>
+  <si>
+    <t>1233@FF.CPM</t>
+  </si>
+  <si>
+    <t>Asho23</t>
   </si>
 </sst>
 </file>
@@ -482,11 +485,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,17 +499,16 @@
     <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" style="1"/>
     <col min="8" max="8" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="8.7109375" style="1"/>
-    <col min="12" max="12" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7109375" style="1"/>
+    <col min="12" max="12" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -540,17 +542,14 @@
       <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="5">
-        <v>44624</v>
+      <c r="L1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -584,17 +583,14 @@
       <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="5">
-        <v>44813</v>
+      <c r="L2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -628,40 +624,37 @@
       <c r="K3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="5">
-        <v>44562</v>
+      <c r="L3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5">
         <v>44683</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="5">
         <v>20576</v>
       </c>
       <c r="F4" s="1">
-        <v>118895428</v>
+        <v>118333428</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1">
         <v>4568</v>
@@ -670,16 +663,13 @@
         <v>4568</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="5">
-        <v>44562</v>
+        <v>20</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/uploads/sample.xlsx
+++ b/Excel/uploads/sample.xlsx
@@ -92,16 +92,16 @@
     <t>Asho</t>
   </si>
   <si>
-    <t>Ashan01</t>
-  </si>
-  <si>
-    <t>8955237452V</t>
-  </si>
-  <si>
-    <t>1233@FF.CPM</t>
-  </si>
-  <si>
-    <t>Asho23</t>
+    <t>Ashan012</t>
+  </si>
+  <si>
+    <t>6955237452V</t>
+  </si>
+  <si>
+    <t>qb@da.d</t>
+  </si>
+  <si>
+    <t>Asho823</t>
   </si>
 </sst>
 </file>
@@ -485,11 +485,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,13 +502,13 @@
     <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" style="1"/>
     <col min="8" max="8" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.7109375" style="1"/>
-    <col min="12" max="12" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7109375" style="1"/>
+    <col min="9" max="12" width="8.7109375" style="1"/>
+    <col min="13" max="13" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -539,17 +539,20 @@
       <c r="J1" s="1">
         <v>1254</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1">
+        <v>12345</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -580,17 +583,20 @@
       <c r="J2" s="1">
         <v>1456</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1">
+        <v>1234</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -621,17 +627,20 @@
       <c r="J3" s="1">
         <v>1267</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="1">
+        <v>22</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -648,7 +657,7 @@
         <v>20576</v>
       </c>
       <c r="F4" s="1">
-        <v>118333428</v>
+        <v>138333428</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>13</v>
@@ -662,13 +671,16 @@
       <c r="J4" s="1">
         <v>4568</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="1">
+        <v>111</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Excel/uploads/sample.xlsx
+++ b/Excel/uploads/sample.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Sahan</t>
   </si>
@@ -50,9 +50,6 @@
     <t>sdf</t>
   </si>
   <si>
-    <t>Perera</t>
-  </si>
-  <si>
     <t>Abc</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>995671521V</t>
   </si>
   <si>
-    <t>991212345V</t>
-  </si>
-  <si>
     <t>Malabe</t>
   </si>
   <si>
@@ -101,7 +95,13 @@
     <t>qb@da.d</t>
   </si>
   <si>
-    <t>Asho823</t>
+    <t>992345V</t>
+  </si>
+  <si>
+    <t>Asho  823</t>
+  </si>
+  <si>
+    <t>Abc4 5</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +510,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="6">
         <v>40941</v>
@@ -519,7 +519,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="5">
         <v>35645</v>
@@ -563,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="6">
         <v>9257</v>
@@ -590,24 +590,22 @@
         <v>7</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5">
         <v>44683</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E3" s="5">
         <v>20576</v>
@@ -616,10 +614,10 @@
         <v>118765428</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="I3" s="1">
         <v>1235</v>
@@ -631,27 +629,24 @@
         <v>22</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5">
         <v>44683</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="5">
         <v>20576</v>
@@ -660,10 +655,10 @@
         <v>138333428</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1">
         <v>4568</v>
@@ -675,13 +670,13 @@
         <v>111</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
